--- a/BackTest/2020-01-20 BackTest BCD.xlsx
+++ b/BackTest/2020-01-20 BackTest BCD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-40367.47417573999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-33108.92967573999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-33608.92967573999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-33640.91707573998</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-33688.76857573998</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-30147.84013977998</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-30148.84013977998</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-30400.29353977998</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-30676.24293977998</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-32261.97673977998</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-31259.10193977998</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-36303.41083977998</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-35538.94393977998</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-45700.25553977998</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-49969.27173977998</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-49969.27173977998</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-49969.27173977998</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-49968.27173977998</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-50140.30903977998</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-52220.30903977998</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-52219.30903977998</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-52601.70903977998</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-52601.70903977998</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-53511.70903977998</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-53335.50903977999</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-48420.09963977999</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-48420.09963977999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-48420.09963977999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-48420.09963977999</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-48164.27473977999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-48164.27473977999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-48214.67473977999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-62080.86333977999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-49044.32324003</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-55798.70979731</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-60497.68589731</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-60606.16889731</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-60605.16889731</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-60605.16889731</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-60625.03809731</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-65067.21599731</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-65065.21599731</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-65063.21599731</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-66476.30399730999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-66476.30399730999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-66525.03109731</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-65107.94309731</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-65307.23049731</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-65028.89449730999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-64507.89449730999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-65044.44979730999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-65044.44979730999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-65044.44979730999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-60743.52029730999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-60743.52029730999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-59557.47589731</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-59557.47589731</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-59696.23149730999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-59678.23149730999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-59698.23149730999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-59708.23149730999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-58008.55819730999</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-58148.55819730999</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-58172.23359730999</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-58329.32729730999</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-58278.32729730999</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-58400.32729730999</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-57237.16809730999</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-57184.16809730999</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-57184.96809730999</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-57184.96809730999</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-57183.96809730999</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-56932.62051110999</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-69416.21281110999</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-69415.21281110999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-74479.22601110999</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-74478.22601110999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-75062.35040943998</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-84434.28170776997</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-84435.28170776997</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-84576.28170776997</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-84292.28170776997</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-89549.33570776998</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-89026.05960776997</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-93443.14860776998</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-89608.43130776998</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-101561.24832882</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-111651.9568878</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-111651.9568878</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-106598.4503878</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-106598.4503878</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-106598.4503878</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-106598.4503878</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-106745.4026878</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-106678.0004878</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-106827.9745878</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-104543.1080878</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-105895.0350878</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-105937.4617878</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-106848.2745878</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-107230.1148878</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-141483.8706844101</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-112856.6158395601</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-113845.7595395601</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-113440.7595395601</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-112720.6090395601</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-112530.5997395601</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-112266.1770395601</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-134384.81373956</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-133327.39373956</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-132240.07763956</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-132160.07763956</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-132038.07773956</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-131977.07773956</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-131637.2893395601</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-131545.7894395601</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-127602.8154933201</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-129701.4071933201</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-129201.4071933201</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-116201.4071933201</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-116058.2207933201</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-116581.8922933201</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-117098.6732933201</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-117087.6732933201</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-118795.34719332</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-119820.34719332</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-118821.04329332</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-118821.04329332</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-118675.0433933201</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-118617.2866933201</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-119159.0173933201</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-118354.9025933201</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-118354.9025933201</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-118354.9025933201</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-120976.6454933201</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-119126.3484933201</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-119126.3484933201</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-119126.3484933201</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-119124.54849332</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-122031.65629332</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-122031.65629332</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-126062.52359332</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-126062.52359332</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-126062.52359332</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-126062.52359332</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-126062.52359332</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-126474.61139332</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-126474.61139332</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-126478.44659332</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-126478.44659332</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-126478.44659332</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-126633.37909332</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-128606.27069332</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-127903.03469332</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-127903.03469332</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-129385.99289332</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-131339.66069332</v>
       </c>
       <c r="H389" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-131778.0837933201</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-131778.0837933201</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-131778.0837933201</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-145701.1756933201</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-145701.1756933201</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-145687.8778209801</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-145845.4884209801</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-145844.4884209801</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-148764.7542209801</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-149689.0555209801</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-149689.0555209801</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-149578.0244209801</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-148469.4043209801</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-148841.6596209801</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-148762.7313209801</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-149729.0466209801</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-148631.58682098</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-148630.58682098</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-149727.0466209801</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-150433.2519209801</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-150333.2519209801</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-151250.82522098</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-151397.74042098</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-151146.48222098</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-151305.82552098</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-151305.82552098</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-151305.82552098</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-150959.82552098</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-150959.82552098</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-150985.82552098</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-151171.13122098</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-151180.02972098</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-151210.02972098</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-151874.98182098</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-151656.94602098</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-161442.69802098</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-160741.30502098</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-160735.30529658</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-161750.10699658</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-161750.10699658</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-161746.66157211</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-161746.66157211</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-161239.91329651</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-161197.08719651</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-161126.08692396</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-163104.03252396</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-162695.03252396</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-162869.1625931</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-162869.1625931</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-162869.1625931</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-163309.1625931</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-164361.7956931</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-164868.5425931</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-164358.3782931</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-163114.55985873</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-163114.55985873</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-160538.22415873</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-153502.21305589</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-153502.21305589</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-153502.21305589</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-155782.59635589</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-152446.63745589</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-146284.98125589</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-155777.34095589</v>
       </c>
       <c r="H479" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-155187.95591403</v>
       </c>
       <c r="H480" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-155492.32357217</v>
       </c>
       <c r="H481" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-154435.13537217</v>
       </c>
       <c r="H482" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-154173.99557217</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-157905.61581403</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-157702.55861403</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-156040.09111403</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-156040.09111403</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-155486.98281403</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-156148.06111403</v>
       </c>
       <c r="H489" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-156771.61501403</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-156770.61501403</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-157060.61491403</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-157019.61491403</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-157019.61491403</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-157019.61491403</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-157014.42921403</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-157040.42921403</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-157040.42921403</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-157040.42921403</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-157040.42921403</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-157040.42921403</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-155318.2586140299</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-157618.2586140299</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-154475.9425140299</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-158708.49731403</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-157269.75189037</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-157268.75189037</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-157291.4513903699</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-157867.2396903699</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-156167.2036903699</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-156166.2036903699</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-156167.2036903699</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-156167.2036903699</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-155797.2036903699</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-155996.3338903699</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-155995.3338903699</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-156748.72449037</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-155448.54139037</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-155091.86349037</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-155090.86349037</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-155130.86349037</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-155130.86349037</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-155993.2376903699</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-156337.6302903699</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-157229.5309903699</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-157229.5309903699</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-157276.6110903699</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-157275.6110903699</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-157278.6110903699</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-157277.6110903699</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-157563.6110903699</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-157340.3408903699</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-157602.1686903699</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-157622.1686903699</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-157507.7334903699</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-157436.9185903699</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-157436.9185903699</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-157491.6719903699</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-157491.6719903699</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-157591.4219903699</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-157590.4219903699</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-157610.8961903699</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-157513.8961903699</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>-157513.8961903699</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-159598.4754903699</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-159598.4754903699</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-159598.4754903699</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>-159598.4754903699</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>-159598.4754903699</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-159496.4754903699</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-159368.9754903699</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-157910.4111903699</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-159714.6108903699</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-159713.6108903699</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-159485.1167903699</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-157261.2849903699</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-157261.2849903699</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-157261.2849903699</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>-158000.6924903699</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>-157582.4943903699</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>-155725.5413903699</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>-155375.0792903699</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>-155477.8472903699</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>-155748.3092903699</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-155412.0680903699</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>-155662.0679903699</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-155265.5560903699</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>-155325.5674903699</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-155282.0040903699</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-155282.0040903699</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-155457.8974903699</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>-155757.8974903699</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>-156221.0568903699</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-156154.0326903699</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-156339.7326903699</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>-156920.6760903699</v>
       </c>
       <c r="H576" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>-157585.1279903699</v>
       </c>
       <c r="H577" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>-158335.0122903699</v>
       </c>
       <c r="H578" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>-158738.8146903699</v>
       </c>
       <c r="H579" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>-158738.8146903699</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>-158738.8146903699</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
         <v>-157967.8420903698</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19624,7 +19624,7 @@
         <v>-158135.7698903698</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
         <v>-158730.9752903699</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19690,7 +19690,7 @@
         <v>-158727.1297903699</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>-158896.4661903699</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>-158896.4661903699</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>-158926.8604903699</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
         <v>-158003.8604903699</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>-158614.8604903699</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>-158614.8604903699</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>-158614.8604903699</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>-158614.8604903699</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>-158614.8604903699</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>-158574.0982903699</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>-158976.2536903699</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>-158976.2536903699</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>-158976.2536903699</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>-158970.2536903699</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>-158869.2536903699</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>-159068.0842903699</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-159143.0842903699</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>-160272.6149903699</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-160271.6149903699</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>-160393.3783903698</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-160393.3783903698</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>-161231.3782903698</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>-161145.5168903699</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>-161195.5168903699</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>-161195.5168903699</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>-161086.6021903699</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>-162140.0573903699</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>-162140.0573903699</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-162164.6075903699</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>-165962.2957903699</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>-165961.2957903699</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>-165961.2957903699</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>-166051.6625903698</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>-166051.6625903698</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>-166062.9956903698</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>-166062.9956903698</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>-166663.4236903698</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>-168102.8264903699</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>-168102.8264903699</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>-168270.1403903699</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>-168270.1403903699</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>-167872.0722903699</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>-169420.6800903699</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>-169400.6800903699</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>-170252.5876903699</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>-169410.3618903699</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>-170351.4590903699</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>-170351.4590903699</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>-170351.4590903699</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>-168454.8201903699</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>-168452.0105903699</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-168703.9116903699</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>-168703.9116903699</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>-168703.9116903699</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>-168565.2154351699</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21538,7 +21538,7 @@
         <v>-168565.2154351699</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21571,7 +21571,7 @@
         <v>-168575.2154351699</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21604,7 +21604,7 @@
         <v>-168575.2154351699</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>-168575.2154351699</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>-168062.2154351699</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>-167927.8470351699</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>-167927.8470351699</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>-168475.0566351699</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>-168475.0566351699</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -21835,7 +21835,7 @@
         <v>-168475.0566351699</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -21868,7 +21868,7 @@
         <v>-168474.0566351699</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -22033,7 +22033,7 @@
         <v>-169261.9296604899</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22099,7 +22099,7 @@
         <v>-176001.4239604899</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22132,7 +22132,7 @@
         <v>-173048.5450604899</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22165,7 +22165,7 @@
         <v>-179883.3118604899</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22858,7 +22858,7 @@
         <v>-213066.3944645799</v>
       </c>
       <c r="H681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -23716,7 +23716,7 @@
         <v>-283238.4838732598</v>
       </c>
       <c r="H707" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -23749,7 +23749,7 @@
         <v>-283238.4838732598</v>
       </c>
       <c r="H708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -23782,7 +23782,7 @@
         <v>-280399.7829732598</v>
       </c>
       <c r="H709" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -23815,7 +23815,7 @@
         <v>-277554.2991732598</v>
       </c>
       <c r="H710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -23848,7 +23848,7 @@
         <v>-278399.6660732598</v>
       </c>
       <c r="H711" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -23881,7 +23881,7 @@
         <v>-276843.6625732598</v>
       </c>
       <c r="H712" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -23914,7 +23914,7 @@
         <v>-276843.6625732598</v>
       </c>
       <c r="H713" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -24541,7 +24541,7 @@
         <v>-362509.5436374798</v>
       </c>
       <c r="H732" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -24574,7 +24574,7 @@
         <v>-369028.9191374798</v>
       </c>
       <c r="H733" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -24607,7 +24607,7 @@
         <v>-378053.7124192398</v>
       </c>
       <c r="H734" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -24739,7 +24739,7 @@
         <v>-400382.0859803898</v>
       </c>
       <c r="H738" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -24805,7 +24805,7 @@
         <v>-422397.0315020798</v>
       </c>
       <c r="H740" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -24838,7 +24838,7 @@
         <v>-426046.2690020798</v>
       </c>
       <c r="H741" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -26620,759 +26620,703 @@
         <v>-418528.8639099097</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
-      </c>
-      <c r="I795" t="n">
-        <v>655.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr">
+      <c r="K795" t="inlineStr"/>
+      <c r="L795" t="n">
+        <v>1</v>
+      </c>
+      <c r="M795" t="inlineStr"/>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="n">
+        <v>794</v>
+      </c>
+      <c r="B796" t="n">
+        <v>653</v>
+      </c>
+      <c r="C796" t="n">
+        <v>653</v>
+      </c>
+      <c r="D796" t="n">
+        <v>653</v>
+      </c>
+      <c r="E796" t="n">
+        <v>653</v>
+      </c>
+      <c r="F796" t="n">
+        <v>468.6599</v>
+      </c>
+      <c r="G796" t="n">
+        <v>-418997.5238099098</v>
+      </c>
+      <c r="H796" t="n">
+        <v>0</v>
+      </c>
+      <c r="I796" t="inlineStr"/>
+      <c r="J796" t="inlineStr"/>
+      <c r="K796" t="inlineStr"/>
+      <c r="L796" t="n">
+        <v>1</v>
+      </c>
+      <c r="M796" t="inlineStr"/>
+    </row>
+    <row r="797">
+      <c r="A797" s="1" t="n">
+        <v>795</v>
+      </c>
+      <c r="B797" t="n">
+        <v>651.2</v>
+      </c>
+      <c r="C797" t="n">
+        <v>651.1</v>
+      </c>
+      <c r="D797" t="n">
+        <v>652.9</v>
+      </c>
+      <c r="E797" t="n">
+        <v>651.1</v>
+      </c>
+      <c r="F797" t="n">
+        <v>2492.5277</v>
+      </c>
+      <c r="G797" t="n">
+        <v>-421490.0515099097</v>
+      </c>
+      <c r="H797" t="n">
+        <v>0</v>
+      </c>
+      <c r="I797" t="inlineStr"/>
+      <c r="J797" t="inlineStr"/>
+      <c r="K797" t="inlineStr"/>
+      <c r="L797" t="n">
+        <v>1</v>
+      </c>
+      <c r="M797" t="inlineStr"/>
+    </row>
+    <row r="798">
+      <c r="A798" s="1" t="n">
+        <v>796</v>
+      </c>
+      <c r="B798" t="n">
+        <v>651.1</v>
+      </c>
+      <c r="C798" t="n">
+        <v>651.2</v>
+      </c>
+      <c r="D798" t="n">
+        <v>651.2</v>
+      </c>
+      <c r="E798" t="n">
+        <v>651.1</v>
+      </c>
+      <c r="F798" t="n">
+        <v>628.3271999999999</v>
+      </c>
+      <c r="G798" t="n">
+        <v>-420861.7243099097</v>
+      </c>
+      <c r="H798" t="n">
+        <v>0</v>
+      </c>
+      <c r="I798" t="inlineStr"/>
+      <c r="J798" t="inlineStr"/>
+      <c r="K798" t="inlineStr"/>
+      <c r="L798" t="n">
+        <v>1</v>
+      </c>
+      <c r="M798" t="inlineStr"/>
+    </row>
+    <row r="799">
+      <c r="A799" s="1" t="n">
+        <v>797</v>
+      </c>
+      <c r="B799" t="n">
+        <v>652.9</v>
+      </c>
+      <c r="C799" t="n">
+        <v>652</v>
+      </c>
+      <c r="D799" t="n">
+        <v>652.9</v>
+      </c>
+      <c r="E799" t="n">
+        <v>644.1</v>
+      </c>
+      <c r="F799" t="n">
+        <v>3083.8118</v>
+      </c>
+      <c r="G799" t="n">
+        <v>-417777.9125099097</v>
+      </c>
+      <c r="H799" t="n">
+        <v>0</v>
+      </c>
+      <c r="I799" t="inlineStr"/>
+      <c r="J799" t="inlineStr"/>
+      <c r="K799" t="inlineStr"/>
+      <c r="L799" t="n">
+        <v>1</v>
+      </c>
+      <c r="M799" t="inlineStr"/>
+    </row>
+    <row r="800">
+      <c r="A800" s="1" t="n">
+        <v>798</v>
+      </c>
+      <c r="B800" t="n">
+        <v>653</v>
+      </c>
+      <c r="C800" t="n">
+        <v>653</v>
+      </c>
+      <c r="D800" t="n">
+        <v>653</v>
+      </c>
+      <c r="E800" t="n">
+        <v>653</v>
+      </c>
+      <c r="F800" t="n">
+        <v>3</v>
+      </c>
+      <c r="G800" t="n">
+        <v>-417774.9125099097</v>
+      </c>
+      <c r="H800" t="n">
+        <v>0</v>
+      </c>
+      <c r="I800" t="inlineStr"/>
+      <c r="J800" t="inlineStr"/>
+      <c r="K800" t="inlineStr"/>
+      <c r="L800" t="n">
+        <v>1</v>
+      </c>
+      <c r="M800" t="inlineStr"/>
+    </row>
+    <row r="801">
+      <c r="A801" s="1" t="n">
+        <v>799</v>
+      </c>
+      <c r="B801" t="n">
+        <v>653</v>
+      </c>
+      <c r="C801" t="n">
+        <v>653</v>
+      </c>
+      <c r="D801" t="n">
+        <v>653</v>
+      </c>
+      <c r="E801" t="n">
+        <v>653</v>
+      </c>
+      <c r="F801" t="n">
+        <v>87.3612</v>
+      </c>
+      <c r="G801" t="n">
+        <v>-417774.9125099097</v>
+      </c>
+      <c r="H801" t="n">
+        <v>0</v>
+      </c>
+      <c r="I801" t="inlineStr"/>
+      <c r="J801" t="inlineStr"/>
+      <c r="K801" t="inlineStr"/>
+      <c r="L801" t="n">
+        <v>1</v>
+      </c>
+      <c r="M801" t="inlineStr"/>
+    </row>
+    <row r="802">
+      <c r="A802" s="1" t="n">
+        <v>800</v>
+      </c>
+      <c r="B802" t="n">
+        <v>652</v>
+      </c>
+      <c r="C802" t="n">
+        <v>652</v>
+      </c>
+      <c r="D802" t="n">
+        <v>652</v>
+      </c>
+      <c r="E802" t="n">
+        <v>652</v>
+      </c>
+      <c r="F802" t="n">
+        <v>257.9909</v>
+      </c>
+      <c r="G802" t="n">
+        <v>-418032.9034099097</v>
+      </c>
+      <c r="H802" t="n">
+        <v>0</v>
+      </c>
+      <c r="I802" t="inlineStr"/>
+      <c r="J802" t="inlineStr"/>
+      <c r="K802" t="inlineStr"/>
+      <c r="L802" t="n">
+        <v>1</v>
+      </c>
+      <c r="M802" t="inlineStr"/>
+    </row>
+    <row r="803">
+      <c r="A803" s="1" t="n">
+        <v>801</v>
+      </c>
+      <c r="B803" t="n">
+        <v>655</v>
+      </c>
+      <c r="C803" t="n">
+        <v>655</v>
+      </c>
+      <c r="D803" t="n">
+        <v>655</v>
+      </c>
+      <c r="E803" t="n">
+        <v>655</v>
+      </c>
+      <c r="F803" t="n">
+        <v>152.6</v>
+      </c>
+      <c r="G803" t="n">
+        <v>-417880.3034099097</v>
+      </c>
+      <c r="H803" t="n">
+        <v>0</v>
+      </c>
+      <c r="I803" t="inlineStr"/>
+      <c r="J803" t="inlineStr"/>
+      <c r="K803" t="inlineStr"/>
+      <c r="L803" t="n">
+        <v>1</v>
+      </c>
+      <c r="M803" t="inlineStr"/>
+    </row>
+    <row r="804">
+      <c r="A804" s="1" t="n">
+        <v>802</v>
+      </c>
+      <c r="B804" t="n">
+        <v>655.9</v>
+      </c>
+      <c r="C804" t="n">
+        <v>655</v>
+      </c>
+      <c r="D804" t="n">
+        <v>655.9</v>
+      </c>
+      <c r="E804" t="n">
+        <v>655</v>
+      </c>
+      <c r="F804" t="n">
+        <v>5077.4774</v>
+      </c>
+      <c r="G804" t="n">
+        <v>-417880.3034099097</v>
+      </c>
+      <c r="H804" t="n">
+        <v>0</v>
+      </c>
+      <c r="I804" t="inlineStr"/>
+      <c r="J804" t="inlineStr"/>
+      <c r="K804" t="inlineStr"/>
+      <c r="L804" t="n">
+        <v>1</v>
+      </c>
+      <c r="M804" t="inlineStr"/>
+    </row>
+    <row r="805">
+      <c r="A805" s="1" t="n">
+        <v>803</v>
+      </c>
+      <c r="B805" t="n">
+        <v>654</v>
+      </c>
+      <c r="C805" t="n">
+        <v>655</v>
+      </c>
+      <c r="D805" t="n">
+        <v>655</v>
+      </c>
+      <c r="E805" t="n">
+        <v>654</v>
+      </c>
+      <c r="F805" t="n">
+        <v>1248.41467862</v>
+      </c>
+      <c r="G805" t="n">
+        <v>-417880.3034099097</v>
+      </c>
+      <c r="H805" t="n">
+        <v>0</v>
+      </c>
+      <c r="I805" t="inlineStr"/>
+      <c r="J805" t="inlineStr"/>
+      <c r="K805" t="inlineStr"/>
+      <c r="L805" t="n">
+        <v>1</v>
+      </c>
+      <c r="M805" t="inlineStr"/>
+    </row>
+    <row r="806">
+      <c r="A806" s="1" t="n">
+        <v>804</v>
+      </c>
+      <c r="B806" t="n">
+        <v>654</v>
+      </c>
+      <c r="C806" t="n">
+        <v>600.2</v>
+      </c>
+      <c r="D806" t="n">
+        <v>654</v>
+      </c>
+      <c r="E806" t="n">
+        <v>600</v>
+      </c>
+      <c r="F806" t="n">
+        <v>129981.1845</v>
+      </c>
+      <c r="G806" t="n">
+        <v>-547861.4879099097</v>
+      </c>
+      <c r="H806" t="n">
+        <v>0</v>
+      </c>
+      <c r="I806" t="inlineStr"/>
+      <c r="J806" t="inlineStr"/>
+      <c r="K806" t="inlineStr"/>
+      <c r="L806" t="n">
+        <v>1</v>
+      </c>
+      <c r="M806" t="inlineStr"/>
+    </row>
+    <row r="807">
+      <c r="A807" s="1" t="n">
+        <v>805</v>
+      </c>
+      <c r="B807" t="n">
+        <v>641.4</v>
+      </c>
+      <c r="C807" t="n">
+        <v>630</v>
+      </c>
+      <c r="D807" t="n">
+        <v>641.4</v>
+      </c>
+      <c r="E807" t="n">
+        <v>630</v>
+      </c>
+      <c r="F807" t="n">
+        <v>8817.482</v>
+      </c>
+      <c r="G807" t="n">
+        <v>-539044.0059099097</v>
+      </c>
+      <c r="H807" t="n">
+        <v>0</v>
+      </c>
+      <c r="I807" t="inlineStr"/>
+      <c r="J807" t="inlineStr"/>
+      <c r="K807" t="inlineStr"/>
+      <c r="L807" t="n">
+        <v>1</v>
+      </c>
+      <c r="M807" t="inlineStr"/>
+    </row>
+    <row r="808">
+      <c r="A808" s="1" t="n">
+        <v>806</v>
+      </c>
+      <c r="B808" t="n">
+        <v>632</v>
+      </c>
+      <c r="C808" t="n">
+        <v>631</v>
+      </c>
+      <c r="D808" t="n">
+        <v>632</v>
+      </c>
+      <c r="E808" t="n">
+        <v>631</v>
+      </c>
+      <c r="F808" t="n">
+        <v>6497.2843</v>
+      </c>
+      <c r="G808" t="n">
+        <v>-532546.7216099097</v>
+      </c>
+      <c r="H808" t="n">
+        <v>0</v>
+      </c>
+      <c r="I808" t="inlineStr"/>
+      <c r="J808" t="inlineStr"/>
+      <c r="K808" t="inlineStr"/>
+      <c r="L808" t="n">
+        <v>1</v>
+      </c>
+      <c r="M808" t="inlineStr"/>
+    </row>
+    <row r="809">
+      <c r="A809" s="1" t="n">
+        <v>807</v>
+      </c>
+      <c r="B809" t="n">
+        <v>638.9</v>
+      </c>
+      <c r="C809" t="n">
+        <v>641.2</v>
+      </c>
+      <c r="D809" t="n">
+        <v>641.2</v>
+      </c>
+      <c r="E809" t="n">
+        <v>636</v>
+      </c>
+      <c r="F809" t="n">
+        <v>22134.20482607</v>
+      </c>
+      <c r="G809" t="n">
+        <v>-510412.5167838397</v>
+      </c>
+      <c r="H809" t="n">
+        <v>0</v>
+      </c>
+      <c r="I809" t="inlineStr"/>
+      <c r="J809" t="inlineStr"/>
+      <c r="K809" t="inlineStr"/>
+      <c r="L809" t="n">
+        <v>1</v>
+      </c>
+      <c r="M809" t="inlineStr"/>
+    </row>
+    <row r="810">
+      <c r="A810" s="1" t="n">
+        <v>808</v>
+      </c>
+      <c r="B810" t="n">
+        <v>640.9</v>
+      </c>
+      <c r="C810" t="n">
+        <v>641.3</v>
+      </c>
+      <c r="D810" t="n">
+        <v>641.3</v>
+      </c>
+      <c r="E810" t="n">
+        <v>640.9</v>
+      </c>
+      <c r="F810" t="n">
+        <v>12264.8455</v>
+      </c>
+      <c r="G810" t="n">
+        <v>-498147.6712838397</v>
+      </c>
+      <c r="H810" t="n">
+        <v>0</v>
+      </c>
+      <c r="I810" t="inlineStr"/>
+      <c r="J810" t="inlineStr"/>
+      <c r="K810" t="inlineStr"/>
+      <c r="L810" t="n">
+        <v>1</v>
+      </c>
+      <c r="M810" t="inlineStr"/>
+    </row>
+    <row r="811">
+      <c r="A811" s="1" t="n">
+        <v>809</v>
+      </c>
+      <c r="B811" t="n">
+        <v>641.4</v>
+      </c>
+      <c r="C811" t="n">
+        <v>659.9</v>
+      </c>
+      <c r="D811" t="n">
+        <v>659.9</v>
+      </c>
+      <c r="E811" t="n">
+        <v>641.4</v>
+      </c>
+      <c r="F811" t="n">
+        <v>26203.13006192</v>
+      </c>
+      <c r="G811" t="n">
+        <v>-471944.5412219197</v>
+      </c>
+      <c r="H811" t="n">
+        <v>1</v>
+      </c>
+      <c r="I811" t="n">
+        <v>641.3</v>
+      </c>
+      <c r="J811" t="n">
+        <v>641.3</v>
+      </c>
+      <c r="K811" t="inlineStr"/>
+      <c r="L811" t="n">
+        <v>1</v>
+      </c>
+      <c r="M811" t="inlineStr"/>
+    </row>
+    <row r="812">
+      <c r="A812" s="1" t="n">
+        <v>810</v>
+      </c>
+      <c r="B812" t="n">
+        <v>653.7</v>
+      </c>
+      <c r="C812" t="n">
+        <v>648</v>
+      </c>
+      <c r="D812" t="n">
+        <v>661</v>
+      </c>
+      <c r="E812" t="n">
+        <v>648</v>
+      </c>
+      <c r="F812" t="n">
+        <v>9353.9602</v>
+      </c>
+      <c r="G812" t="n">
+        <v>-481298.5014219197</v>
+      </c>
+      <c r="H812" t="n">
+        <v>1</v>
+      </c>
+      <c r="I812" t="n">
+        <v>659.9</v>
+      </c>
+      <c r="J812" t="n">
+        <v>641.3</v>
+      </c>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L812" t="n">
+        <v>1</v>
+      </c>
+      <c r="M812" t="inlineStr"/>
+    </row>
+    <row r="813">
+      <c r="A813" s="1" t="n">
+        <v>811</v>
+      </c>
+      <c r="B813" t="n">
+        <v>659</v>
+      </c>
+      <c r="C813" t="n">
+        <v>659</v>
+      </c>
+      <c r="D813" t="n">
+        <v>659</v>
+      </c>
+      <c r="E813" t="n">
+        <v>659</v>
+      </c>
+      <c r="F813" t="n">
+        <v>161.4955</v>
+      </c>
+      <c r="G813" t="n">
+        <v>-481137.0059219197</v>
+      </c>
+      <c r="H813" t="n">
+        <v>1</v>
+      </c>
+      <c r="I813" t="n">
+        <v>648</v>
+      </c>
+      <c r="J813" t="n">
+        <v>641.3</v>
+      </c>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L813" t="n">
+        <v>1</v>
+      </c>
+      <c r="M813" t="inlineStr"/>
+    </row>
+    <row r="814">
+      <c r="A814" s="1" t="n">
+        <v>812</v>
+      </c>
+      <c r="B814" t="n">
+        <v>659</v>
+      </c>
+      <c r="C814" t="n">
+        <v>659</v>
+      </c>
+      <c r="D814" t="n">
+        <v>659</v>
+      </c>
+      <c r="E814" t="n">
+        <v>659</v>
+      </c>
+      <c r="F814" t="n">
+        <v>617.1274</v>
+      </c>
+      <c r="G814" t="n">
+        <v>-481137.0059219197</v>
+      </c>
+      <c r="H814" t="n">
+        <v>1</v>
+      </c>
+      <c r="I814" t="n">
+        <v>659</v>
+      </c>
+      <c r="J814" t="n">
+        <v>659</v>
+      </c>
+      <c r="K814" t="inlineStr"/>
+      <c r="L814" t="n">
+        <v>1</v>
+      </c>
+      <c r="M814" t="inlineStr"/>
+    </row>
+    <row r="815">
+      <c r="A815" s="1" t="n">
+        <v>813</v>
+      </c>
+      <c r="B815" t="n">
+        <v>658</v>
+      </c>
+      <c r="C815" t="n">
+        <v>659.1</v>
+      </c>
+      <c r="D815" t="n">
+        <v>660</v>
+      </c>
+      <c r="E815" t="n">
+        <v>658</v>
+      </c>
+      <c r="F815" t="n">
+        <v>8122.3059</v>
+      </c>
+      <c r="G815" t="n">
+        <v>-473014.7000219197</v>
+      </c>
+      <c r="H815" t="n">
+        <v>1</v>
+      </c>
+      <c r="I815" t="n">
+        <v>659</v>
+      </c>
+      <c r="J815" t="n">
+        <v>659</v>
+      </c>
+      <c r="K815" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L795" t="n">
-        <v>1</v>
-      </c>
-      <c r="M795" t="inlineStr"/>
-    </row>
-    <row r="796">
-      <c r="A796" s="1" t="n">
-        <v>794</v>
-      </c>
-      <c r="B796" t="n">
-        <v>653</v>
-      </c>
-      <c r="C796" t="n">
-        <v>653</v>
-      </c>
-      <c r="D796" t="n">
-        <v>653</v>
-      </c>
-      <c r="E796" t="n">
-        <v>653</v>
-      </c>
-      <c r="F796" t="n">
-        <v>468.6599</v>
-      </c>
-      <c r="G796" t="n">
-        <v>-418997.5238099098</v>
-      </c>
-      <c r="H796" t="n">
-        <v>0</v>
-      </c>
-      <c r="I796" t="inlineStr"/>
-      <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L796" t="n">
-        <v>1</v>
-      </c>
-      <c r="M796" t="inlineStr"/>
-    </row>
-    <row r="797">
-      <c r="A797" s="1" t="n">
-        <v>795</v>
-      </c>
-      <c r="B797" t="n">
-        <v>651.2</v>
-      </c>
-      <c r="C797" t="n">
-        <v>651.1</v>
-      </c>
-      <c r="D797" t="n">
-        <v>652.9</v>
-      </c>
-      <c r="E797" t="n">
-        <v>651.1</v>
-      </c>
-      <c r="F797" t="n">
-        <v>2492.5277</v>
-      </c>
-      <c r="G797" t="n">
-        <v>-421490.0515099097</v>
-      </c>
-      <c r="H797" t="n">
-        <v>0</v>
-      </c>
-      <c r="I797" t="inlineStr"/>
-      <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L797" t="n">
-        <v>1</v>
-      </c>
-      <c r="M797" t="inlineStr"/>
-    </row>
-    <row r="798">
-      <c r="A798" s="1" t="n">
-        <v>796</v>
-      </c>
-      <c r="B798" t="n">
-        <v>651.1</v>
-      </c>
-      <c r="C798" t="n">
-        <v>651.2</v>
-      </c>
-      <c r="D798" t="n">
-        <v>651.2</v>
-      </c>
-      <c r="E798" t="n">
-        <v>651.1</v>
-      </c>
-      <c r="F798" t="n">
-        <v>628.3271999999999</v>
-      </c>
-      <c r="G798" t="n">
-        <v>-420861.7243099097</v>
-      </c>
-      <c r="H798" t="n">
-        <v>0</v>
-      </c>
-      <c r="I798" t="inlineStr"/>
-      <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L798" t="n">
-        <v>1</v>
-      </c>
-      <c r="M798" t="inlineStr"/>
-    </row>
-    <row r="799">
-      <c r="A799" s="1" t="n">
-        <v>797</v>
-      </c>
-      <c r="B799" t="n">
-        <v>652.9</v>
-      </c>
-      <c r="C799" t="n">
-        <v>652</v>
-      </c>
-      <c r="D799" t="n">
-        <v>652.9</v>
-      </c>
-      <c r="E799" t="n">
-        <v>644.1</v>
-      </c>
-      <c r="F799" t="n">
-        <v>3083.8118</v>
-      </c>
-      <c r="G799" t="n">
-        <v>-417777.9125099097</v>
-      </c>
-      <c r="H799" t="n">
-        <v>0</v>
-      </c>
-      <c r="I799" t="inlineStr"/>
-      <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L799" t="n">
-        <v>1</v>
-      </c>
-      <c r="M799" t="inlineStr"/>
-    </row>
-    <row r="800">
-      <c r="A800" s="1" t="n">
-        <v>798</v>
-      </c>
-      <c r="B800" t="n">
-        <v>653</v>
-      </c>
-      <c r="C800" t="n">
-        <v>653</v>
-      </c>
-      <c r="D800" t="n">
-        <v>653</v>
-      </c>
-      <c r="E800" t="n">
-        <v>653</v>
-      </c>
-      <c r="F800" t="n">
-        <v>3</v>
-      </c>
-      <c r="G800" t="n">
-        <v>-417774.9125099097</v>
-      </c>
-      <c r="H800" t="n">
-        <v>0</v>
-      </c>
-      <c r="I800" t="inlineStr"/>
-      <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L800" t="n">
-        <v>1</v>
-      </c>
-      <c r="M800" t="inlineStr"/>
-    </row>
-    <row r="801">
-      <c r="A801" s="1" t="n">
-        <v>799</v>
-      </c>
-      <c r="B801" t="n">
-        <v>653</v>
-      </c>
-      <c r="C801" t="n">
-        <v>653</v>
-      </c>
-      <c r="D801" t="n">
-        <v>653</v>
-      </c>
-      <c r="E801" t="n">
-        <v>653</v>
-      </c>
-      <c r="F801" t="n">
-        <v>87.3612</v>
-      </c>
-      <c r="G801" t="n">
-        <v>-417774.9125099097</v>
-      </c>
-      <c r="H801" t="n">
-        <v>0</v>
-      </c>
-      <c r="I801" t="inlineStr"/>
-      <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L801" t="n">
-        <v>1</v>
-      </c>
-      <c r="M801" t="inlineStr"/>
-    </row>
-    <row r="802">
-      <c r="A802" s="1" t="n">
-        <v>800</v>
-      </c>
-      <c r="B802" t="n">
-        <v>652</v>
-      </c>
-      <c r="C802" t="n">
-        <v>652</v>
-      </c>
-      <c r="D802" t="n">
-        <v>652</v>
-      </c>
-      <c r="E802" t="n">
-        <v>652</v>
-      </c>
-      <c r="F802" t="n">
-        <v>257.9909</v>
-      </c>
-      <c r="G802" t="n">
-        <v>-418032.9034099097</v>
-      </c>
-      <c r="H802" t="n">
-        <v>0</v>
-      </c>
-      <c r="I802" t="inlineStr"/>
-      <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L802" t="n">
-        <v>1</v>
-      </c>
-      <c r="M802" t="inlineStr"/>
-    </row>
-    <row r="803">
-      <c r="A803" s="1" t="n">
-        <v>801</v>
-      </c>
-      <c r="B803" t="n">
-        <v>655</v>
-      </c>
-      <c r="C803" t="n">
-        <v>655</v>
-      </c>
-      <c r="D803" t="n">
-        <v>655</v>
-      </c>
-      <c r="E803" t="n">
-        <v>655</v>
-      </c>
-      <c r="F803" t="n">
-        <v>152.6</v>
-      </c>
-      <c r="G803" t="n">
-        <v>-417880.3034099097</v>
-      </c>
-      <c r="H803" t="n">
-        <v>0</v>
-      </c>
-      <c r="I803" t="inlineStr"/>
-      <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L803" t="n">
-        <v>1</v>
-      </c>
-      <c r="M803" t="inlineStr"/>
-    </row>
-    <row r="804">
-      <c r="A804" s="1" t="n">
-        <v>802</v>
-      </c>
-      <c r="B804" t="n">
-        <v>655.9</v>
-      </c>
-      <c r="C804" t="n">
-        <v>655</v>
-      </c>
-      <c r="D804" t="n">
-        <v>655.9</v>
-      </c>
-      <c r="E804" t="n">
-        <v>655</v>
-      </c>
-      <c r="F804" t="n">
-        <v>5077.4774</v>
-      </c>
-      <c r="G804" t="n">
-        <v>-417880.3034099097</v>
-      </c>
-      <c r="H804" t="n">
-        <v>0</v>
-      </c>
-      <c r="I804" t="inlineStr"/>
-      <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L804" t="n">
-        <v>1</v>
-      </c>
-      <c r="M804" t="inlineStr"/>
-    </row>
-    <row r="805">
-      <c r="A805" s="1" t="n">
-        <v>803</v>
-      </c>
-      <c r="B805" t="n">
-        <v>654</v>
-      </c>
-      <c r="C805" t="n">
-        <v>655</v>
-      </c>
-      <c r="D805" t="n">
-        <v>655</v>
-      </c>
-      <c r="E805" t="n">
-        <v>654</v>
-      </c>
-      <c r="F805" t="n">
-        <v>1248.41467862</v>
-      </c>
-      <c r="G805" t="n">
-        <v>-417880.3034099097</v>
-      </c>
-      <c r="H805" t="n">
-        <v>0</v>
-      </c>
-      <c r="I805" t="inlineStr"/>
-      <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L805" t="n">
-        <v>1</v>
-      </c>
-      <c r="M805" t="inlineStr"/>
-    </row>
-    <row r="806">
-      <c r="A806" s="1" t="n">
-        <v>804</v>
-      </c>
-      <c r="B806" t="n">
-        <v>654</v>
-      </c>
-      <c r="C806" t="n">
-        <v>600.2</v>
-      </c>
-      <c r="D806" t="n">
-        <v>654</v>
-      </c>
-      <c r="E806" t="n">
-        <v>600</v>
-      </c>
-      <c r="F806" t="n">
-        <v>129981.1845</v>
-      </c>
-      <c r="G806" t="n">
-        <v>-547861.4879099097</v>
-      </c>
-      <c r="H806" t="n">
-        <v>0</v>
-      </c>
-      <c r="I806" t="inlineStr"/>
-      <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L806" t="n">
-        <v>1</v>
-      </c>
-      <c r="M806" t="inlineStr"/>
-    </row>
-    <row r="807">
-      <c r="A807" s="1" t="n">
-        <v>805</v>
-      </c>
-      <c r="B807" t="n">
-        <v>641.4</v>
-      </c>
-      <c r="C807" t="n">
-        <v>630</v>
-      </c>
-      <c r="D807" t="n">
-        <v>641.4</v>
-      </c>
-      <c r="E807" t="n">
-        <v>630</v>
-      </c>
-      <c r="F807" t="n">
-        <v>8817.482</v>
-      </c>
-      <c r="G807" t="n">
-        <v>-539044.0059099097</v>
-      </c>
-      <c r="H807" t="n">
-        <v>0</v>
-      </c>
-      <c r="I807" t="inlineStr"/>
-      <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L807" t="n">
-        <v>1</v>
-      </c>
-      <c r="M807" t="inlineStr"/>
-    </row>
-    <row r="808">
-      <c r="A808" s="1" t="n">
-        <v>806</v>
-      </c>
-      <c r="B808" t="n">
-        <v>632</v>
-      </c>
-      <c r="C808" t="n">
-        <v>631</v>
-      </c>
-      <c r="D808" t="n">
-        <v>632</v>
-      </c>
-      <c r="E808" t="n">
-        <v>631</v>
-      </c>
-      <c r="F808" t="n">
-        <v>6497.2843</v>
-      </c>
-      <c r="G808" t="n">
-        <v>-532546.7216099097</v>
-      </c>
-      <c r="H808" t="n">
-        <v>0</v>
-      </c>
-      <c r="I808" t="inlineStr"/>
-      <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L808" t="n">
-        <v>1</v>
-      </c>
-      <c r="M808" t="inlineStr"/>
-    </row>
-    <row r="809">
-      <c r="A809" s="1" t="n">
-        <v>807</v>
-      </c>
-      <c r="B809" t="n">
-        <v>638.9</v>
-      </c>
-      <c r="C809" t="n">
-        <v>641.2</v>
-      </c>
-      <c r="D809" t="n">
-        <v>641.2</v>
-      </c>
-      <c r="E809" t="n">
-        <v>636</v>
-      </c>
-      <c r="F809" t="n">
-        <v>22134.20482607</v>
-      </c>
-      <c r="G809" t="n">
-        <v>-510412.5167838397</v>
-      </c>
-      <c r="H809" t="n">
-        <v>0</v>
-      </c>
-      <c r="I809" t="inlineStr"/>
-      <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L809" t="n">
-        <v>1</v>
-      </c>
-      <c r="M809" t="inlineStr"/>
-    </row>
-    <row r="810">
-      <c r="A810" s="1" t="n">
-        <v>808</v>
-      </c>
-      <c r="B810" t="n">
-        <v>640.9</v>
-      </c>
-      <c r="C810" t="n">
-        <v>641.3</v>
-      </c>
-      <c r="D810" t="n">
-        <v>641.3</v>
-      </c>
-      <c r="E810" t="n">
-        <v>640.9</v>
-      </c>
-      <c r="F810" t="n">
-        <v>12264.8455</v>
-      </c>
-      <c r="G810" t="n">
-        <v>-498147.6712838397</v>
-      </c>
-      <c r="H810" t="n">
-        <v>0</v>
-      </c>
-      <c r="I810" t="inlineStr"/>
-      <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L810" t="n">
-        <v>1</v>
-      </c>
-      <c r="M810" t="inlineStr"/>
-    </row>
-    <row r="811">
-      <c r="A811" s="1" t="n">
-        <v>809</v>
-      </c>
-      <c r="B811" t="n">
-        <v>641.4</v>
-      </c>
-      <c r="C811" t="n">
-        <v>659.9</v>
-      </c>
-      <c r="D811" t="n">
-        <v>659.9</v>
-      </c>
-      <c r="E811" t="n">
-        <v>641.4</v>
-      </c>
-      <c r="F811" t="n">
-        <v>26203.13006192</v>
-      </c>
-      <c r="G811" t="n">
-        <v>-471944.5412219197</v>
-      </c>
-      <c r="H811" t="n">
-        <v>0</v>
-      </c>
-      <c r="I811" t="inlineStr"/>
-      <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L811" t="n">
-        <v>1</v>
-      </c>
-      <c r="M811" t="inlineStr"/>
-    </row>
-    <row r="812">
-      <c r="A812" s="1" t="n">
-        <v>810</v>
-      </c>
-      <c r="B812" t="n">
-        <v>653.7</v>
-      </c>
-      <c r="C812" t="n">
-        <v>648</v>
-      </c>
-      <c r="D812" t="n">
-        <v>661</v>
-      </c>
-      <c r="E812" t="n">
-        <v>648</v>
-      </c>
-      <c r="F812" t="n">
-        <v>9353.9602</v>
-      </c>
-      <c r="G812" t="n">
-        <v>-481298.5014219197</v>
-      </c>
-      <c r="H812" t="n">
-        <v>0</v>
-      </c>
-      <c r="I812" t="inlineStr"/>
-      <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L812" t="n">
-        <v>1</v>
-      </c>
-      <c r="M812" t="inlineStr"/>
-    </row>
-    <row r="813">
-      <c r="A813" s="1" t="n">
-        <v>811</v>
-      </c>
-      <c r="B813" t="n">
-        <v>659</v>
-      </c>
-      <c r="C813" t="n">
-        <v>659</v>
-      </c>
-      <c r="D813" t="n">
-        <v>659</v>
-      </c>
-      <c r="E813" t="n">
-        <v>659</v>
-      </c>
-      <c r="F813" t="n">
-        <v>161.4955</v>
-      </c>
-      <c r="G813" t="n">
-        <v>-481137.0059219197</v>
-      </c>
-      <c r="H813" t="n">
-        <v>0</v>
-      </c>
-      <c r="I813" t="inlineStr"/>
-      <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L813" t="n">
-        <v>1</v>
-      </c>
-      <c r="M813" t="inlineStr"/>
-    </row>
-    <row r="814">
-      <c r="A814" s="1" t="n">
-        <v>812</v>
-      </c>
-      <c r="B814" t="n">
-        <v>659</v>
-      </c>
-      <c r="C814" t="n">
-        <v>659</v>
-      </c>
-      <c r="D814" t="n">
-        <v>659</v>
-      </c>
-      <c r="E814" t="n">
-        <v>659</v>
-      </c>
-      <c r="F814" t="n">
-        <v>617.1274</v>
-      </c>
-      <c r="G814" t="n">
-        <v>-481137.0059219197</v>
-      </c>
-      <c r="H814" t="n">
-        <v>0</v>
-      </c>
-      <c r="I814" t="inlineStr"/>
-      <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L814" t="n">
-        <v>1</v>
-      </c>
-      <c r="M814" t="inlineStr"/>
-    </row>
-    <row r="815">
-      <c r="A815" s="1" t="n">
-        <v>813</v>
-      </c>
-      <c r="B815" t="n">
-        <v>658</v>
-      </c>
-      <c r="C815" t="n">
-        <v>659.1</v>
-      </c>
-      <c r="D815" t="n">
-        <v>660</v>
-      </c>
-      <c r="E815" t="n">
-        <v>658</v>
-      </c>
-      <c r="F815" t="n">
-        <v>8122.3059</v>
-      </c>
-      <c r="G815" t="n">
-        <v>-473014.7000219197</v>
-      </c>
-      <c r="H815" t="n">
-        <v>2</v>
-      </c>
-      <c r="I815" t="n">
-        <v>659</v>
-      </c>
-      <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -27401,10 +27345,14 @@
         <v>-472631.5546173597</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
-      </c>
-      <c r="I816" t="inlineStr"/>
-      <c r="J816" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I816" t="n">
+        <v>659.1</v>
+      </c>
+      <c r="J816" t="n">
+        <v>659</v>
+      </c>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27438,12 +27386,14 @@
         <v>-470889.4964173596</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I817" t="n">
         <v>660.5</v>
       </c>
-      <c r="J817" t="inlineStr"/>
+      <c r="J817" t="n">
+        <v>659</v>
+      </c>
       <c r="K817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27477,10 +27427,14 @@
         <v>-470889.4964173596</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
-      </c>
-      <c r="I818" t="inlineStr"/>
-      <c r="J818" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I818" t="n">
+        <v>661.6</v>
+      </c>
+      <c r="J818" t="n">
+        <v>659</v>
+      </c>
       <c r="K818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27517,7 +27471,9 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="inlineStr"/>
+      <c r="J819" t="n">
+        <v>659</v>
+      </c>
       <c r="K819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27554,7 +27510,9 @@
         <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
-      <c r="J820" t="inlineStr"/>
+      <c r="J820" t="n">
+        <v>659</v>
+      </c>
       <c r="K820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27591,7 +27549,9 @@
         <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="inlineStr"/>
+      <c r="J821" t="n">
+        <v>659</v>
+      </c>
       <c r="K821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27628,7 +27588,9 @@
         <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
-      <c r="J822" t="inlineStr"/>
+      <c r="J822" t="n">
+        <v>659</v>
+      </c>
       <c r="K822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27665,7 +27627,9 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="inlineStr"/>
+      <c r="J823" t="n">
+        <v>659</v>
+      </c>
       <c r="K823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27702,7 +27666,9 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="inlineStr"/>
+      <c r="J824" t="n">
+        <v>659</v>
+      </c>
       <c r="K824" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27739,7 +27705,9 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="inlineStr"/>
+      <c r="J825" t="n">
+        <v>659</v>
+      </c>
       <c r="K825" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27776,7 +27744,9 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="inlineStr"/>
+      <c r="J826" t="n">
+        <v>659</v>
+      </c>
       <c r="K826" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27813,7 +27783,9 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="inlineStr"/>
+      <c r="J827" t="n">
+        <v>659</v>
+      </c>
       <c r="K827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27850,7 +27822,9 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="inlineStr"/>
+      <c r="J828" t="n">
+        <v>659</v>
+      </c>
       <c r="K828" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27887,7 +27861,9 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="inlineStr"/>
+      <c r="J829" t="n">
+        <v>659</v>
+      </c>
       <c r="K829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27924,7 +27900,9 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="inlineStr"/>
+      <c r="J830" t="n">
+        <v>659</v>
+      </c>
       <c r="K830" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27961,7 +27939,9 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="inlineStr"/>
+      <c r="J831" t="n">
+        <v>659</v>
+      </c>
       <c r="K831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27998,7 +27978,9 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="inlineStr"/>
+      <c r="J832" t="n">
+        <v>659</v>
+      </c>
       <c r="K832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28035,7 +28017,9 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="inlineStr"/>
+      <c r="J833" t="n">
+        <v>659</v>
+      </c>
       <c r="K833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28072,7 +28056,9 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="inlineStr"/>
+      <c r="J834" t="n">
+        <v>659</v>
+      </c>
       <c r="K834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28109,7 +28095,9 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="inlineStr"/>
+      <c r="J835" t="n">
+        <v>659</v>
+      </c>
       <c r="K835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28146,7 +28134,9 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="inlineStr"/>
+      <c r="J836" t="n">
+        <v>659</v>
+      </c>
       <c r="K836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28183,7 +28173,9 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="inlineStr"/>
+      <c r="J837" t="n">
+        <v>659</v>
+      </c>
       <c r="K837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28220,7 +28212,9 @@
         <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
-      <c r="J838" t="inlineStr"/>
+      <c r="J838" t="n">
+        <v>659</v>
+      </c>
       <c r="K838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28257,7 +28251,9 @@
         <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="inlineStr"/>
+      <c r="J839" t="n">
+        <v>659</v>
+      </c>
       <c r="K839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28294,7 +28290,9 @@
         <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
-      <c r="J840" t="inlineStr"/>
+      <c r="J840" t="n">
+        <v>659</v>
+      </c>
       <c r="K840" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28331,7 +28329,9 @@
         <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
-      <c r="J841" t="inlineStr"/>
+      <c r="J841" t="n">
+        <v>659</v>
+      </c>
       <c r="K841" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28368,7 +28368,9 @@
         <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
-      <c r="J842" t="inlineStr"/>
+      <c r="J842" t="n">
+        <v>659</v>
+      </c>
       <c r="K842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28405,7 +28407,9 @@
         <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
-      <c r="J843" t="inlineStr"/>
+      <c r="J843" t="n">
+        <v>659</v>
+      </c>
       <c r="K843" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28442,7 +28446,9 @@
         <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
-      <c r="J844" t="inlineStr"/>
+      <c r="J844" t="n">
+        <v>659</v>
+      </c>
       <c r="K844" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28479,7 +28485,9 @@
         <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
-      <c r="J845" t="inlineStr"/>
+      <c r="J845" t="n">
+        <v>659</v>
+      </c>
       <c r="K845" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28516,7 +28524,9 @@
         <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
-      <c r="J846" t="inlineStr"/>
+      <c r="J846" t="n">
+        <v>659</v>
+      </c>
       <c r="K846" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28553,7 +28563,9 @@
         <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
-      <c r="J847" t="inlineStr"/>
+      <c r="J847" t="n">
+        <v>659</v>
+      </c>
       <c r="K847" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28565,6 +28577,6 @@
       <c r="M847" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest BCD.xlsx
+++ b/BackTest/2020-01-20 BackTest BCD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-40367.47417573999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-33108.92967573999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-33608.92967573999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-33640.91707573998</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-33688.76857573998</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-30147.84013977998</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-30148.84013977998</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-30400.29353977998</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-30676.24293977998</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-32261.97673977998</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-31259.10193977998</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-36303.41083977998</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-35538.94393977998</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-45700.25553977998</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-49969.27173977998</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-49969.27173977998</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-49969.27173977998</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-49968.27173977998</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-50140.30903977998</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-52220.30903977998</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-52219.30903977998</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-52601.70903977998</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-52601.70903977998</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-53511.70903977998</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-53335.50903977999</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-48420.09963977999</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-48420.09963977999</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-48420.09963977999</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-48420.09963977999</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-48164.27473977999</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-48164.27473977999</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-48214.67473977999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-62080.86333977999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-49044.32324003</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-60497.68589731</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-60606.16889731</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-66476.30399730999</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-66476.30399730999</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-59609.23149730999</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-59611.23149730999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-59611.23149730999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-58008.55819730999</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-58148.55819730999</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-58278.32729730999</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-58400.32729730999</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-57237.16809730999</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-57184.16809730999</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-57184.96809730999</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-57184.96809730999</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-57183.96809730999</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-56932.62051110999</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-69416.21281110999</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-69415.21281110999</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-74479.22601110999</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-74478.22601110999</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-75062.35040943998</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-87123.31250776997</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-89026.05960776997</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-91867.05960776997</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-93443.14860776998</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-89647.43130776998</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-98438.44937866997</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-98438.44937866997</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-96445.04437866998</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-88350.19247866998</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-88350.19247866998</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-88402.19247866998</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-87401.19247866998</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-87509.72627866999</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-87509.72627866999</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-86454.11302742999</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-86483.11302742999</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-86457.11302742999</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-86483.11302742999</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-86455.11302742999</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-86454.11302742999</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-96177.09462742999</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-96176.09462742999</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-100622.36002743</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-100223.08452743</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-101414.20392743</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-101416.20392743</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-101426.20392743</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-101427.60252882</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-101561.24832882</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-102735.47922882</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-104851.43712882</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-101852.13272882</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-103149.60832882</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-103149.60832882</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-103149.60832882</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-101757.71092882</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-106179.86242882</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-102494.74492882</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-102487.34492882</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-102487.34492882</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-104077.3030878</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-104077.3030878</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-102999.4056878</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-103304.1437878</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-106936.2255878</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-106957.9633878</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-106956.9633878</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-103766.9633878</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-100275.6349878</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-102974.1538878</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-100013.4682878</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-100012.4682878</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-100013.8668878</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-99637.42178780002</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-99637.42178780002</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-99636.42178780002</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-100636.4217878</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-102072.8351878</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-102150.7645878</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-108655.4264878</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-108555.4264878</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-109382.7736878</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-109382.7736878</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-109382.7736878</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-113422.7304878</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-111078.0935878</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-112018.5916878</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-112018.5916878</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-112018.5916878</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-113919.5906878</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-111651.9568878</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-112505.6648878</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-106598.4503878</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-106598.4503878</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-106598.4503878</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-106598.4503878</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-106745.4026878</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-106678.0004878</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-106827.9745878</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-104543.1080878</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-105895.0350878</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-105937.4617878</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-106848.2745878</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-107230.1148878</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-142993.2210878</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-169858.7530395601</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-170252.4288395601</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-170250.4940395601</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-171141.7726395601</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-170141.7726395601</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-161609.5574395601</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-161609.5574395601</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-161609.5574395601</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-160033.2779395601</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-153908.6395395601</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-152362.1952395601</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-146706.0419395601</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-149281.5623395601</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-147056.7855395601</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-143807.5188395601</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-141483.8706844101</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-136717.5804395601</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-123280.9916395601</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-112856.6158395601</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-112856.6158395601</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-113845.7595395601</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-113440.7595395601</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-112720.6090395601</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-112530.5997395601</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-112266.1770395601</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-116661.5865395601</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-116661.5865395601</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-134395.09313956</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-134384.81373956</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-133327.39373956</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-132240.07763956</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-132160.07763956</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-132038.07773956</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-131977.07773956</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-131637.2893395601</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-131545.7894395601</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-127602.8154933201</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-129701.4071933201</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-129201.4071933201</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-116201.4071933201</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-116058.2207933201</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-116581.8922933201</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-117098.6732933201</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-117087.6732933201</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-118795.34719332</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-119820.34719332</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-118821.04329332</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-118821.04329332</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-118675.0433933201</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-118617.2866933201</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-119159.0173933201</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-118354.9025933201</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-118354.9025933201</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-118354.9025933201</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-120976.6454933201</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-119126.3484933201</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-119126.3484933201</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-119126.3484933201</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-119124.54849332</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-122031.65629332</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-122031.65629332</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-126062.52359332</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-126062.52359332</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-126062.52359332</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-126062.52359332</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-126062.52359332</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-126474.61139332</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-126474.61139332</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-126478.44659332</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-126478.44659332</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-126478.44659332</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-126633.37909332</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-128606.27069332</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-127903.03469332</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-127903.03469332</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-129385.99289332</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-131339.66069332</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-131778.0837933201</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-131778.0837933201</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-131778.0837933201</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-145701.1756933201</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-145701.1756933201</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-145687.8778209801</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-145845.4884209801</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-145844.4884209801</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-148764.7542209801</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-149689.0555209801</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-149689.0555209801</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-149578.0244209801</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-148469.4043209801</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-148841.6596209801</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-148762.7313209801</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-149729.0466209801</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-148631.58682098</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-148630.58682098</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-149727.0466209801</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-150433.2519209801</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-150333.2519209801</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-151250.82522098</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-151397.74042098</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-151146.48222098</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-151305.82552098</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-151305.82552098</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-151305.82552098</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-150959.82552098</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-150959.82552098</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-150985.82552098</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-151171.13122098</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-151180.02972098</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-151210.02972098</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-151874.98182098</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-151656.94602098</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-161442.69802098</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-160741.30502098</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-160735.30529658</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-161750.10699658</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-161750.10699658</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-161746.66157211</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-161746.66157211</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-161239.91329651</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-161197.08719651</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-161126.08692396</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-163104.03252396</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-162695.03252396</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-162869.1625931</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-162869.1625931</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-162869.1625931</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-163309.1625931</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-164361.7956931</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-164868.5425931</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-164358.3782931</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-163114.55985873</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-163114.55985873</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-160538.22415873</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-153502.21305589</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-153502.21305589</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-153502.21305589</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-155782.59635589</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-152446.63745589</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-146284.98125589</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-155777.34095589</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-155187.95591403</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-155492.32357217</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-154435.13537217</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-154173.99557217</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-157905.61581403</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-157702.55861403</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-156040.09111403</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-156040.09111403</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-155486.98281403</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-156148.06111403</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-156771.61501403</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-156770.61501403</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-157060.61491403</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-157019.61491403</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-157019.61491403</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-157019.61491403</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-157014.42921403</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-157040.42921403</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-157040.42921403</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-157040.42921403</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-157040.42921403</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-157040.42921403</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-155318.2586140299</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-157618.2586140299</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-154475.9425140299</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-158708.49731403</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-157269.75189037</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-157268.75189037</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-157291.4513903699</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-157867.2396903699</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-156167.2036903699</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-156166.2036903699</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-156167.2036903699</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-156167.2036903699</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-155797.2036903699</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-155996.3338903699</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-155995.3338903699</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-156748.72449037</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-155448.54139037</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-155091.86349037</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-155090.86349037</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-155130.86349037</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-155130.86349037</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-155993.2376903699</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-156337.6302903699</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-157229.5309903699</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-157229.5309903699</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-157276.6110903699</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-157275.6110903699</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-157278.6110903699</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-157277.6110903699</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-157563.6110903699</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-157340.3408903699</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-157602.1686903699</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-157622.1686903699</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-157507.7334903699</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-157436.9185903699</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-157436.9185903699</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-157491.6719903699</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-157491.6719903699</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-157591.4219903699</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-157590.4219903699</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-157610.8961903699</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-157513.8961903699</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>-157513.8961903699</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-159598.4754903699</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-159598.4754903699</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-159598.4754903699</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>-159598.4754903699</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>-159598.4754903699</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-159496.4754903699</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-159368.9754903699</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-157910.4111903699</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-159714.6108903699</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-159713.6108903699</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-159485.1167903699</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-157261.2849903699</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-157261.2849903699</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-157261.2849903699</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>-158000.6924903699</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>-157582.4943903699</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>-155725.5413903699</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>-155375.0792903699</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>-155477.8472903699</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>-155748.3092903699</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-155412.0680903699</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>-155662.0679903699</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-155265.5560903699</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>-155325.5674903699</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-155282.0040903699</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-155282.0040903699</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-155457.8974903699</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>-155757.8974903699</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>-156221.0568903699</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-156154.0326903699</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-156339.7326903699</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>-156920.6760903699</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>-157585.1279903699</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>-158335.0122903699</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>-158738.8146903699</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>-158738.8146903699</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>-158738.8146903699</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
         <v>-157967.8420903698</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19624,7 +19624,7 @@
         <v>-158135.7698903698</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
         <v>-158730.9752903699</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19690,7 +19690,7 @@
         <v>-158727.1297903699</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>-158896.4661903699</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>-158896.4661903699</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>-158926.8604903699</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
         <v>-158003.8604903699</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>-158614.8604903699</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>-158614.8604903699</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>-158614.8604903699</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>-158614.8604903699</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>-158614.8604903699</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>-158574.0982903699</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>-158976.2536903699</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>-158976.2536903699</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>-158976.2536903699</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>-158970.2536903699</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>-158869.2536903699</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>-159068.0842903699</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-159143.0842903699</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>-160272.6149903699</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-160271.6149903699</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>-160393.3783903698</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-160393.3783903698</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>-161231.3782903698</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>-161145.5168903699</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>-161195.5168903699</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>-161195.5168903699</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>-161086.6021903699</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>-162140.0573903699</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>-162140.0573903699</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-162164.6075903699</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>-165962.2957903699</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>-165961.2957903699</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>-165961.2957903699</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>-166051.6625903698</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>-166051.6625903698</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>-166062.9956903698</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>-166062.9956903698</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>-166663.4236903698</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>-168102.8264903699</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>-168102.8264903699</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>-168270.1403903699</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>-168270.1403903699</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>-167872.0722903699</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>-169420.6800903699</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>-169400.6800903699</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>-170252.5876903699</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>-169410.3618903699</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>-170351.4590903699</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>-170351.4590903699</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>-170351.4590903699</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>-168454.8201903699</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>-168452.0105903699</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-168703.9116903699</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>-168703.9116903699</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>-168703.9116903699</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>-168565.2154351699</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21538,7 +21538,7 @@
         <v>-168565.2154351699</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21571,7 +21571,7 @@
         <v>-168575.2154351699</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21604,7 +21604,7 @@
         <v>-168575.2154351699</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>-168575.2154351699</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>-168062.2154351699</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>-167927.8470351699</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>-167927.8470351699</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>-168475.0566351699</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>-168475.0566351699</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -21835,7 +21835,7 @@
         <v>-168475.0566351699</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -21868,7 +21868,7 @@
         <v>-168474.0566351699</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -22033,7 +22033,7 @@
         <v>-169261.9296604899</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22099,7 +22099,7 @@
         <v>-176001.4239604899</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22132,7 +22132,7 @@
         <v>-173048.5450604899</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22165,7 +22165,7 @@
         <v>-179883.3118604899</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -26752,11 +26752,17 @@
         <v>-417777.9125099097</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
-      </c>
-      <c r="I799" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I799" t="n">
+        <v>651.2</v>
+      </c>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -26785,11 +26791,17 @@
         <v>-417774.9125099097</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
-      </c>
-      <c r="I800" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I800" t="n">
+        <v>652</v>
+      </c>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -26818,11 +26830,17 @@
         <v>-417774.9125099097</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
-      </c>
-      <c r="I801" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I801" t="n">
+        <v>653</v>
+      </c>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -26851,11 +26869,17 @@
         <v>-418032.9034099097</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
-      </c>
-      <c r="I802" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I802" t="n">
+        <v>653</v>
+      </c>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -26884,11 +26908,17 @@
         <v>-417880.3034099097</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
-      </c>
-      <c r="I803" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I803" t="n">
+        <v>652</v>
+      </c>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -26921,7 +26951,11 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -26954,7 +26988,11 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -26983,11 +27021,17 @@
         <v>-547861.4879099097</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
-      </c>
-      <c r="I806" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I806" t="n">
+        <v>655</v>
+      </c>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27020,7 +27064,11 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27049,11 +27097,17 @@
         <v>-532546.7216099097</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
-      </c>
-      <c r="I808" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I808" t="n">
+        <v>630</v>
+      </c>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -27082,11 +27136,17 @@
         <v>-510412.5167838397</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
-      </c>
-      <c r="I809" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I809" t="n">
+        <v>631</v>
+      </c>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -27115,11 +27175,17 @@
         <v>-498147.6712838397</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
-      </c>
-      <c r="I810" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I810" t="n">
+        <v>641.2</v>
+      </c>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -27153,10 +27219,12 @@
       <c r="I811" t="n">
         <v>641.3</v>
       </c>
-      <c r="J811" t="n">
-        <v>641.3</v>
-      </c>
-      <c r="K811" t="inlineStr"/>
+      <c r="J811" t="inlineStr"/>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -27185,17 +27253,13 @@
         <v>-481298.5014219197</v>
       </c>
       <c r="H812" t="n">
-        <v>1</v>
-      </c>
-      <c r="I812" t="n">
-        <v>659.9</v>
-      </c>
-      <c r="J812" t="n">
-        <v>641.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I812" t="inlineStr"/>
+      <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L812" t="n">
@@ -27226,17 +27290,13 @@
         <v>-481137.0059219197</v>
       </c>
       <c r="H813" t="n">
-        <v>1</v>
-      </c>
-      <c r="I813" t="n">
-        <v>648</v>
-      </c>
-      <c r="J813" t="n">
-        <v>641.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I813" t="inlineStr"/>
+      <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L813" t="n">
@@ -27267,15 +27327,15 @@
         <v>-481137.0059219197</v>
       </c>
       <c r="H814" t="n">
-        <v>1</v>
-      </c>
-      <c r="I814" t="n">
-        <v>659</v>
-      </c>
-      <c r="J814" t="n">
-        <v>659</v>
-      </c>
-      <c r="K814" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I814" t="inlineStr"/>
+      <c r="J814" t="inlineStr"/>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -27304,17 +27364,13 @@
         <v>-473014.7000219197</v>
       </c>
       <c r="H815" t="n">
-        <v>1</v>
-      </c>
-      <c r="I815" t="n">
-        <v>659</v>
-      </c>
-      <c r="J815" t="n">
-        <v>659</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I815" t="inlineStr"/>
+      <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L815" t="n">
@@ -27345,14 +27401,10 @@
         <v>-472631.5546173597</v>
       </c>
       <c r="H816" t="n">
-        <v>1</v>
-      </c>
-      <c r="I816" t="n">
-        <v>659.1</v>
-      </c>
-      <c r="J816" t="n">
-        <v>659</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I816" t="inlineStr"/>
+      <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27386,14 +27438,10 @@
         <v>-470889.4964173596</v>
       </c>
       <c r="H817" t="n">
-        <v>1</v>
-      </c>
-      <c r="I817" t="n">
-        <v>660.5</v>
-      </c>
-      <c r="J817" t="n">
-        <v>659</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I817" t="inlineStr"/>
+      <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27427,14 +27475,10 @@
         <v>-470889.4964173596</v>
       </c>
       <c r="H818" t="n">
-        <v>1</v>
-      </c>
-      <c r="I818" t="n">
-        <v>661.6</v>
-      </c>
-      <c r="J818" t="n">
-        <v>659</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I818" t="inlineStr"/>
+      <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27471,9 +27515,7 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="n">
-        <v>659</v>
-      </c>
+      <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27510,9 +27552,7 @@
         <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
-      <c r="J820" t="n">
-        <v>659</v>
-      </c>
+      <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27549,9 +27589,7 @@
         <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="n">
-        <v>659</v>
-      </c>
+      <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27588,9 +27626,7 @@
         <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
-      <c r="J822" t="n">
-        <v>659</v>
-      </c>
+      <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27627,9 +27663,7 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="n">
-        <v>659</v>
-      </c>
+      <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27666,9 +27700,7 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="n">
-        <v>659</v>
-      </c>
+      <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27705,9 +27737,7 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="n">
-        <v>659</v>
-      </c>
+      <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27744,9 +27774,7 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="n">
-        <v>659</v>
-      </c>
+      <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27783,9 +27811,7 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="n">
-        <v>659</v>
-      </c>
+      <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27822,9 +27848,7 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="n">
-        <v>659</v>
-      </c>
+      <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27861,9 +27885,7 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="n">
-        <v>659</v>
-      </c>
+      <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27900,9 +27922,7 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="n">
-        <v>659</v>
-      </c>
+      <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27939,9 +27959,7 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="n">
-        <v>659</v>
-      </c>
+      <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27978,9 +27996,7 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="n">
-        <v>659</v>
-      </c>
+      <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28017,9 +28033,7 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="n">
-        <v>659</v>
-      </c>
+      <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28056,9 +28070,7 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="n">
-        <v>659</v>
-      </c>
+      <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28095,9 +28107,7 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="n">
-        <v>659</v>
-      </c>
+      <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28134,9 +28144,7 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="n">
-        <v>659</v>
-      </c>
+      <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28170,20 +28178,16 @@
         <v>-422052.3150476996</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="n">
-        <v>659</v>
-      </c>
+      <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L837" t="n">
-        <v>1</v>
-      </c>
+      <c r="L837" t="inlineStr"/>
       <c r="M837" t="inlineStr"/>
     </row>
     <row r="838">
@@ -28209,17 +28213,11 @@
         <v>-425533.2175413496</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
-      <c r="J838" t="n">
-        <v>659</v>
-      </c>
-      <c r="K838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J838" t="inlineStr"/>
+      <c r="K838" t="inlineStr"/>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28248,17 +28246,11 @@
         <v>-426762.9992413496</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="n">
-        <v>659</v>
-      </c>
-      <c r="K839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J839" t="inlineStr"/>
+      <c r="K839" t="inlineStr"/>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28287,17 +28279,11 @@
         <v>-426748.1844413496</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
-      <c r="J840" t="n">
-        <v>659</v>
-      </c>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J840" t="inlineStr"/>
+      <c r="K840" t="inlineStr"/>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28326,17 +28312,11 @@
         <v>-426748.1844413496</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
-      <c r="J841" t="n">
-        <v>659</v>
-      </c>
-      <c r="K841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J841" t="inlineStr"/>
+      <c r="K841" t="inlineStr"/>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28365,17 +28345,11 @@
         <v>-420918.1844413496</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
-      <c r="J842" t="n">
-        <v>659</v>
-      </c>
-      <c r="K842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J842" t="inlineStr"/>
+      <c r="K842" t="inlineStr"/>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28404,17 +28378,11 @@
         <v>-418552.7789191096</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
-      <c r="J843" t="n">
-        <v>659</v>
-      </c>
-      <c r="K843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J843" t="inlineStr"/>
+      <c r="K843" t="inlineStr"/>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28443,17 +28411,11 @@
         <v>-420761.1211191096</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
-      <c r="J844" t="n">
-        <v>659</v>
-      </c>
-      <c r="K844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J844" t="inlineStr"/>
+      <c r="K844" t="inlineStr"/>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28482,17 +28444,11 @@
         <v>-419057.1372191096</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
-      <c r="J845" t="n">
-        <v>659</v>
-      </c>
-      <c r="K845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J845" t="inlineStr"/>
+      <c r="K845" t="inlineStr"/>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28521,17 +28477,11 @@
         <v>-415414.5727191097</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
-      <c r="J846" t="n">
-        <v>659</v>
-      </c>
-      <c r="K846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J846" t="inlineStr"/>
+      <c r="K846" t="inlineStr"/>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -28560,23 +28510,17 @@
         <v>-400198.1689191096</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
-      <c r="J847" t="n">
-        <v>659</v>
-      </c>
-      <c r="K847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J847" t="inlineStr"/>
+      <c r="K847" t="inlineStr"/>
       <c r="L847" t="n">
         <v>1</v>
       </c>
       <c r="M847" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest BCD.xlsx
+++ b/BackTest/2020-01-20 BackTest BCD.xlsx
@@ -1969,7 +1969,7 @@
         <v>-60605.16889731</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-60605.16889731</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-60625.03809731</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-65067.21599731</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-65065.21599731</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-65063.21599731</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-66525.03109731</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-65107.94309731</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-65307.23049731</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-65028.89449730999</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-64507.89449730999</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-65044.44979730999</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-65044.44979730999</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-65044.44979730999</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-60743.52029730999</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-60743.52029730999</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-59557.47589731</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-59557.47589731</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-59696.23149730999</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-59678.23149730999</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-59698.23149730999</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-59708.23149730999</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-59609.23149730999</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-59611.23149730999</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-59611.23149730999</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-87123.31250776997</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-84434.28170776997</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-84435.28170776997</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-84576.28170776997</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-84292.28170776997</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-89549.33570776998</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-91867.05960776997</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-89647.43130776998</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-98438.44937866997</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-98438.44937866997</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-96445.04437866998</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-88350.19247866998</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-88350.19247866998</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-88402.19247866998</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-87401.19247866998</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-87509.72627866999</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-87509.72627866999</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-86454.11302742999</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-86483.11302742999</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-86457.11302742999</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-86483.11302742999</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-86455.11302742999</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-86454.11302742999</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-96177.09462742999</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-96176.09462742999</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-100622.36002743</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-100223.08452743</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-101414.20392743</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-101416.20392743</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-101426.20392743</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-101427.60252882</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-101561.24832882</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-102735.47922882</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-104851.43712882</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-101852.13272882</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-103149.60832882</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-103149.60832882</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-103149.60832882</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-101757.71092882</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-106179.86242882</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-102494.74492882</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-102487.34492882</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-102487.34492882</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-104077.3030878</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-104077.3030878</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-102999.4056878</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-103304.1437878</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-106936.2255878</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-106957.9633878</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-106956.9633878</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-103766.9633878</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-100275.6349878</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-102974.1538878</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-100013.4682878</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-100012.4682878</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-100013.8668878</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-99637.42178780002</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-99637.42178780002</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-99636.42178780002</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-100636.4217878</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-102072.8351878</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-102150.7645878</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-108655.4264878</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-108555.4264878</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-109382.7736878</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-109382.7736878</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-109382.7736878</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-113422.7304878</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-111078.0935878</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-112018.5916878</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-112018.5916878</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-112018.5916878</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-113919.5906878</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-111651.9568878</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-111651.9568878</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-111651.9568878</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-112505.6648878</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-106598.4503878</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-106598.4503878</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-106598.4503878</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-106598.4503878</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-142993.2210878</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-169858.7530395601</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-170252.4288395601</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-170250.4940395601</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-171141.7726395601</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-170141.7726395601</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-161609.5574395601</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-161609.5574395601</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-161609.5574395601</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-160033.2779395601</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-153908.6395395601</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-152362.1952395601</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-146706.0419395601</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-149281.5623395601</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-147056.7855395601</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-143807.5188395601</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-141483.8706844101</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-136717.5804395601</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-123280.9916395601</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-134384.81373956</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-133327.39373956</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-132240.07763956</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-132160.07763956</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-132038.07773956</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-131977.07773956</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-131637.2893395601</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-131545.7894395601</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-127602.8154933201</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-129701.4071933201</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-129201.4071933201</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-116201.4071933201</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-116058.2207933201</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-116581.8922933201</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-117098.6732933201</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-117087.6732933201</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-118795.34719332</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-119820.34719332</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-118821.04329332</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-118821.04329332</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-118675.0433933201</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-118617.2866933201</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-119159.0173933201</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-118354.9025933201</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-118354.9025933201</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-118354.9025933201</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-120976.6454933201</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-119126.3484933201</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-119126.3484933201</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-119126.3484933201</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-119124.54849332</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-122031.65629332</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-122031.65629332</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-126062.52359332</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-126062.52359332</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-126062.52359332</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-126062.52359332</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-126062.52359332</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-126474.61139332</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-126474.61139332</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-126478.44659332</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-126478.44659332</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-126478.44659332</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-126633.37909332</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-128606.27069332</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-127903.03469332</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-127903.03469332</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-129385.99289332</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-131339.66069332</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-131778.0837933201</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-131778.0837933201</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-131778.0837933201</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-145701.1756933201</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-145701.1756933201</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-145687.8778209801</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-145845.4884209801</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-145844.4884209801</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-148764.7542209801</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-149689.0555209801</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-149689.0555209801</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-149578.0244209801</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-148469.4043209801</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-148841.6596209801</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-148762.7313209801</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-149729.0466209801</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-149727.0466209801</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-150433.2519209801</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-151250.82522098</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-150959.82552098</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-163114.55985873</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-160538.22415873</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-153502.21305589</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-153502.21305589</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-146284.98125589</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-155777.34095589</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-155187.95591403</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-155492.32357217</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-154435.13537217</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-154173.99557217</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-157905.61581403</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-157702.55861403</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-156040.09111403</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-156040.09111403</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-155486.98281403</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-156148.06111403</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-156771.61501403</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-156770.61501403</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-157060.61491403</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-157019.61491403</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-157019.61491403</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-157019.61491403</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-157014.42921403</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-157040.42921403</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-157040.42921403</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-157040.42921403</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-157040.42921403</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-157040.42921403</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-157618.2586140299</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-154475.9425140299</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-158708.49731403</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-157268.75189037</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-157291.4513903699</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-157867.2396903699</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-156167.2036903699</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-156167.2036903699</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-155996.3338903699</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>-155477.8472903699</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>-155748.3092903699</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-155412.0680903699</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>-155662.0679903699</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-155265.5560903699</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>-155325.5674903699</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-155282.0040903699</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-155282.0040903699</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-155457.8974903699</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>-155757.8974903699</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>-156221.0568903699</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-156154.0326903699</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-156339.7326903699</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>-156920.6760903699</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>-157585.1279903699</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>-158335.0122903699</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>-158896.4661903699</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>-158896.4661903699</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -26092,11 +26092,17 @@
         <v>-405394.0281679999</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
-      </c>
-      <c r="I779" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I779" t="n">
+        <v>665.3</v>
+      </c>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26125,11 +26131,17 @@
         <v>-402668.2971679998</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
-      </c>
-      <c r="I780" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I780" t="n">
+        <v>665.5</v>
+      </c>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26158,11 +26170,17 @@
         <v>-402668.2971679998</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
-      </c>
-      <c r="I781" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I781" t="n">
+        <v>665.6</v>
+      </c>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26191,11 +26209,17 @@
         <v>-402668.2971679998</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
-      </c>
-      <c r="I782" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I782" t="n">
+        <v>665.6</v>
+      </c>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26224,11 +26248,17 @@
         <v>-405349.7283679998</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
-      </c>
-      <c r="I783" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I783" t="n">
+        <v>665.6</v>
+      </c>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26257,11 +26287,17 @@
         <v>-420704.7617679999</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
-      </c>
-      <c r="I784" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I784" t="n">
+        <v>661.2</v>
+      </c>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26290,11 +26326,17 @@
         <v>-420696.3310501399</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
-      </c>
-      <c r="I785" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I785" t="n">
+        <v>641.1</v>
+      </c>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26323,11 +26365,17 @@
         <v>-420796.0390501398</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
-      </c>
-      <c r="I786" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I786" t="n">
+        <v>658.9</v>
+      </c>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26356,11 +26404,17 @@
         <v>-418652.2811501398</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
-      </c>
-      <c r="I787" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I787" t="n">
+        <v>647.6</v>
+      </c>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26389,11 +26443,17 @@
         <v>-415599.8726501398</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
-      </c>
-      <c r="I788" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I788" t="n">
+        <v>650</v>
+      </c>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26422,11 +26482,17 @@
         <v>-415870.2766501398</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
-      </c>
-      <c r="I789" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I789" t="n">
+        <v>655.9</v>
+      </c>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26455,11 +26521,17 @@
         <v>-415567.7555824398</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
-      </c>
-      <c r="I790" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I790" t="n">
+        <v>654</v>
+      </c>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26488,11 +26560,17 @@
         <v>-415067.7555824398</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
-      </c>
-      <c r="I791" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I791" t="n">
+        <v>655.8</v>
+      </c>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26521,11 +26599,17 @@
         <v>-417213.2759099097</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
-      </c>
-      <c r="I792" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I792" t="n">
+        <v>655.9</v>
+      </c>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26554,11 +26638,17 @@
         <v>-417213.2759099097</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
-      </c>
-      <c r="I793" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I793" t="n">
+        <v>655.8</v>
+      </c>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26587,11 +26677,17 @@
         <v>-417213.2759099097</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
-      </c>
-      <c r="I794" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I794" t="n">
+        <v>655.8</v>
+      </c>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26620,11 +26716,17 @@
         <v>-418528.8639099097</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
-      </c>
-      <c r="I795" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I795" t="n">
+        <v>655.8</v>
+      </c>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -26653,11 +26755,17 @@
         <v>-418997.5238099098</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
-      </c>
-      <c r="I796" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I796" t="n">
+        <v>653.9</v>
+      </c>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -26686,11 +26794,17 @@
         <v>-421490.0515099097</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
-      </c>
-      <c r="I797" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I797" t="n">
+        <v>653</v>
+      </c>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -26719,11 +26833,17 @@
         <v>-420861.7243099097</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
-      </c>
-      <c r="I798" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I798" t="n">
+        <v>651.1</v>
+      </c>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -26760,7 +26880,7 @@
       <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L799" t="n">
@@ -26947,9 +27067,11 @@
         <v>-417880.3034099097</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
-      </c>
-      <c r="I804" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I804" t="n">
+        <v>655</v>
+      </c>
       <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
@@ -26984,9 +27106,11 @@
         <v>-417880.3034099097</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
-      </c>
-      <c r="I805" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I805" t="n">
+        <v>655</v>
+      </c>
       <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
@@ -27097,11 +27221,9 @@
         <v>-532546.7216099097</v>
       </c>
       <c r="H808" t="n">
-        <v>1</v>
-      </c>
-      <c r="I808" t="n">
-        <v>630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr">
         <is>
@@ -27136,11 +27258,9 @@
         <v>-510412.5167838397</v>
       </c>
       <c r="H809" t="n">
-        <v>1</v>
-      </c>
-      <c r="I809" t="n">
-        <v>631</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr">
         <is>
@@ -27175,11 +27295,9 @@
         <v>-498147.6712838397</v>
       </c>
       <c r="H810" t="n">
-        <v>1</v>
-      </c>
-      <c r="I810" t="n">
-        <v>641.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
@@ -27253,9 +27371,11 @@
         <v>-481298.5014219197</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
-      </c>
-      <c r="I812" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I812" t="n">
+        <v>659.9</v>
+      </c>
       <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
@@ -27290,9 +27410,11 @@
         <v>-481137.0059219197</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
-      </c>
-      <c r="I813" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I813" t="n">
+        <v>648</v>
+      </c>
       <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr">
         <is>
@@ -27327,9 +27449,11 @@
         <v>-481137.0059219197</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
-      </c>
-      <c r="I814" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I814" t="n">
+        <v>659</v>
+      </c>
       <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr">
         <is>
@@ -27364,9 +27488,11 @@
         <v>-473014.7000219197</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
-      </c>
-      <c r="I815" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I815" t="n">
+        <v>659</v>
+      </c>
       <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
@@ -27401,9 +27527,11 @@
         <v>-472631.5546173597</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
-      </c>
-      <c r="I816" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I816" t="n">
+        <v>659.1</v>
+      </c>
       <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr">
         <is>
@@ -27438,9 +27566,11 @@
         <v>-470889.4964173596</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
-      </c>
-      <c r="I817" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I817" t="n">
+        <v>660.5</v>
+      </c>
       <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr">
         <is>
@@ -27475,9 +27605,11 @@
         <v>-470889.4964173596</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
-      </c>
-      <c r="I818" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I818" t="n">
+        <v>661.6</v>
+      </c>
       <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr">
         <is>
@@ -27549,9 +27681,11 @@
         <v>-459840.7643173597</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
-      </c>
-      <c r="I820" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I820" t="n">
+        <v>664.8</v>
+      </c>
       <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr">
         <is>
@@ -27586,9 +27720,11 @@
         <v>-459840.7643173597</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
-      </c>
-      <c r="I821" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I821" t="n">
+        <v>661</v>
+      </c>
       <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
@@ -27734,9 +27870,11 @@
         <v>-457866.7784968797</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
-      </c>
-      <c r="I825" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I825" t="n">
+        <v>663.9</v>
+      </c>
       <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
@@ -27771,9 +27909,11 @@
         <v>-449989.4966968797</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
-      </c>
-      <c r="I826" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I826" t="n">
+        <v>663.9</v>
+      </c>
       <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr">
         <is>
@@ -27808,9 +27948,11 @@
         <v>-443071.4966968797</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
-      </c>
-      <c r="I827" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I827" t="n">
+        <v>664.7</v>
+      </c>
       <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
@@ -27845,9 +27987,11 @@
         <v>-443906.1824968797</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
-      </c>
-      <c r="I828" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I828" t="n">
+        <v>664.8</v>
+      </c>
       <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
@@ -27882,9 +28026,11 @@
         <v>-443015.1824968797</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
-      </c>
-      <c r="I829" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I829" t="n">
+        <v>660.7</v>
+      </c>
       <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
@@ -27919,9 +28065,11 @@
         <v>-446266.1979968796</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
-      </c>
-      <c r="I830" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I830" t="n">
+        <v>661.7</v>
+      </c>
       <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr">
         <is>
@@ -27956,9 +28104,11 @@
         <v>-446266.1979968796</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
-      </c>
-      <c r="I831" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I831" t="n">
+        <v>660</v>
+      </c>
       <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr">
         <is>
@@ -27993,9 +28143,11 @@
         <v>-445397.0809968796</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
-      </c>
-      <c r="I832" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I832" t="n">
+        <v>660</v>
+      </c>
       <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
@@ -28030,9 +28182,11 @@
         <v>-444326.9026968796</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
-      </c>
-      <c r="I833" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I833" t="n">
+        <v>666</v>
+      </c>
       <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
@@ -28067,9 +28221,11 @@
         <v>-429121.7832968796</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
-      </c>
-      <c r="I834" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I834" t="n">
+        <v>667</v>
+      </c>
       <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
@@ -28104,9 +28260,11 @@
         <v>-429252.2492968796</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
-      </c>
-      <c r="I835" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I835" t="n">
+        <v>675</v>
+      </c>
       <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr">
         <is>
@@ -28141,9 +28299,11 @@
         <v>-426823.3134476996</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
-      </c>
-      <c r="I836" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I836" t="n">
+        <v>673.9</v>
+      </c>
       <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr">
         <is>
@@ -28178,16 +28338,20 @@
         <v>-422052.3150476996</v>
       </c>
       <c r="H837" t="n">
-        <v>2</v>
-      </c>
-      <c r="I837" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I837" t="n">
+        <v>682.5</v>
+      </c>
       <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L837" t="inlineStr"/>
+      <c r="L837" t="n">
+        <v>1</v>
+      </c>
       <c r="M837" t="inlineStr"/>
     </row>
     <row r="838">
@@ -28213,11 +28377,17 @@
         <v>-425533.2175413496</v>
       </c>
       <c r="H838" t="n">
-        <v>2</v>
-      </c>
-      <c r="I838" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I838" t="n">
+        <v>684.2</v>
+      </c>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28246,11 +28416,17 @@
         <v>-426762.9992413496</v>
       </c>
       <c r="H839" t="n">
-        <v>2</v>
-      </c>
-      <c r="I839" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I839" t="n">
+        <v>684</v>
+      </c>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28279,11 +28455,17 @@
         <v>-426748.1844413496</v>
       </c>
       <c r="H840" t="n">
-        <v>2</v>
-      </c>
-      <c r="I840" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I840" t="n">
+        <v>667.1</v>
+      </c>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28312,11 +28494,17 @@
         <v>-426748.1844413496</v>
       </c>
       <c r="H841" t="n">
-        <v>2</v>
-      </c>
-      <c r="I841" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I841" t="n">
+        <v>668</v>
+      </c>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28345,11 +28533,17 @@
         <v>-420918.1844413496</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
-      </c>
-      <c r="I842" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I842" t="n">
+        <v>668</v>
+      </c>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28378,11 +28572,17 @@
         <v>-418552.7789191096</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
-      </c>
-      <c r="I843" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I843" t="n">
+        <v>670</v>
+      </c>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28411,11 +28611,17 @@
         <v>-420761.1211191096</v>
       </c>
       <c r="H844" t="n">
-        <v>2</v>
-      </c>
-      <c r="I844" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I844" t="n">
+        <v>698</v>
+      </c>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28444,11 +28650,17 @@
         <v>-419057.1372191096</v>
       </c>
       <c r="H845" t="n">
-        <v>2</v>
-      </c>
-      <c r="I845" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I845" t="n">
+        <v>672</v>
+      </c>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28477,11 +28689,17 @@
         <v>-415414.5727191097</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
-      </c>
-      <c r="I846" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I846" t="n">
+        <v>673.7</v>
+      </c>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -28510,11 +28728,15 @@
         <v>-400198.1689191096</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
